--- a/biology/Virologie/Citrus_yellow_mosaic_virus/Citrus_yellow_mosaic_virus.xlsx
+++ b/biology/Virologie/Citrus_yellow_mosaic_virus/Citrus_yellow_mosaic_virus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Citrus yellow mosaic virus (CiYMV, virus de la mosaïque jaune des agrumes) est une espèce de virus du genre Badnavirus (famille des Caulimoviridae) présent seulement en Inde. Ce sont des virus à ADN, dont le génome monopartite est constitué d'ADN circulaire à double brin. Du type pararétrovirus, ces virus utilisent la transcriptase inverse pour répliquer leur génome. Ces virus, classés dans le groupe VII de la classification Baltimore, sont des phytovirus, qui infectent des plantes du genre Citrus (agrumes), chez lesquelles ils provoquent une maladie appelée « mosaïque jaune des agrumes » ou plus simplement « mosaïque des agrumes ».
 Le nom Citrus yellow mosaic virus a été retenu pour éviter la confusion créée par l'emploi dans le rapport ITCV8 
-d'un même nom, « Citrus mosaic virus », pour désigner deux virus non apparentés créant des symptômes de mosaïque chez les agrumes, d'une part l'espèce objet du présent article, du genre Badnavirus, et d'autre part un isolat du Satsuma dwarf virus, du genre Sadwavirus[3] .
+d'un même nom, « Citrus mosaic virus », pour désigner deux virus non apparentés créant des symptômes de mosaïque chez les agrumes, d'une part l'espèce objet du présent article, du genre Badnavirus, et d'autre part un isolat du Satsuma dwarf virus, du genre Sadwavirus .
 </t>
         </is>
       </c>
